--- a/Team-Data/2007-08/3-10-2007-08.xlsx
+++ b/Team-Data/2007-08/3-10-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,61 +733,61 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E2" t="n">
         <v>26</v>
       </c>
       <c r="F2" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G2" t="n">
-        <v>0.413</v>
+        <v>0.419</v>
       </c>
       <c r="H2" t="n">
         <v>48.5</v>
       </c>
       <c r="I2" t="n">
-        <v>35.4</v>
+        <v>35.2</v>
       </c>
       <c r="J2" t="n">
-        <v>79.59999999999999</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>0.445</v>
+        <v>0.444</v>
       </c>
       <c r="L2" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="M2" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="N2" t="n">
-        <v>0.344</v>
+        <v>0.337</v>
       </c>
       <c r="O2" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="P2" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.774</v>
+        <v>0.775</v>
       </c>
       <c r="R2" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="S2" t="n">
         <v>29.8</v>
       </c>
       <c r="T2" t="n">
-        <v>42.2</v>
+        <v>42.3</v>
       </c>
       <c r="U2" t="n">
         <v>21.3</v>
       </c>
       <c r="V2" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W2" t="n">
         <v>7.5</v>
@@ -732,19 +799,19 @@
         <v>5.3</v>
       </c>
       <c r="Z2" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AA2" t="n">
         <v>21.9</v>
       </c>
       <c r="AB2" t="n">
-        <v>96.2</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>-3</v>
+        <v>-2.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="AE2" t="n">
         <v>19</v>
@@ -759,13 +826,13 @@
         <v>5</v>
       </c>
       <c r="AI2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AJ2" t="n">
         <v>22</v>
       </c>
       <c r="AK2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL2" t="n">
         <v>28</v>
@@ -774,13 +841,13 @@
         <v>28</v>
       </c>
       <c r="AN2" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AO2" t="n">
         <v>5</v>
       </c>
       <c r="AP2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AQ2" t="n">
         <v>7</v>
@@ -789,7 +856,7 @@
         <v>4</v>
       </c>
       <c r="AS2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT2" t="n">
         <v>12</v>
@@ -798,10 +865,10 @@
         <v>16</v>
       </c>
       <c r="AV2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AX2" t="n">
         <v>3</v>
@@ -810,13 +877,13 @@
         <v>24</v>
       </c>
       <c r="AZ2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BC2" t="n">
         <v>21</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-10-2007-08</t>
+          <t>2008-03-10</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E3" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F3" t="n">
         <v>12</v>
       </c>
       <c r="G3" t="n">
-        <v>0.806</v>
+        <v>0.803</v>
       </c>
       <c r="H3" t="n">
         <v>48.2</v>
@@ -866,7 +933,7 @@
         <v>36.2</v>
       </c>
       <c r="J3" t="n">
-        <v>76.09999999999999</v>
+        <v>76</v>
       </c>
       <c r="K3" t="n">
         <v>0.476</v>
@@ -875,7 +942,7 @@
         <v>7.5</v>
       </c>
       <c r="M3" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="N3" t="n">
         <v>0.388</v>
@@ -884,7 +951,7 @@
         <v>20.8</v>
       </c>
       <c r="P3" t="n">
-        <v>27</v>
+        <v>27.1</v>
       </c>
       <c r="Q3" t="n">
         <v>0.768</v>
@@ -893,10 +960,10 @@
         <v>9.699999999999999</v>
       </c>
       <c r="S3" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="T3" t="n">
-        <v>41.5</v>
+        <v>41.3</v>
       </c>
       <c r="U3" t="n">
         <v>22.3</v>
@@ -905,28 +972,28 @@
         <v>15.3</v>
       </c>
       <c r="W3" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="X3" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y3" t="n">
         <v>4.8</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.7</v>
+        <v>22.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="AB3" t="n">
         <v>100.7</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="AD3" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -941,7 +1008,7 @@
         <v>23</v>
       </c>
       <c r="AI3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ3" t="n">
         <v>30</v>
@@ -974,13 +1041,13 @@
         <v>10</v>
       </c>
       <c r="AT3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW3" t="n">
         <v>4</v>
@@ -995,7 +1062,7 @@
         <v>25</v>
       </c>
       <c r="BA3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB3" t="n">
         <v>9</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-10-2007-08</t>
+          <t>2008-03-10</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-4.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AE4" t="n">
         <v>22</v>
@@ -1123,7 +1190,7 @@
         <v>3</v>
       </c>
       <c r="AI4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ4" t="n">
         <v>19</v>
@@ -1165,7 +1232,7 @@
         <v>16</v>
       </c>
       <c r="AW4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX4" t="n">
         <v>13</v>
@@ -1180,7 +1247,7 @@
         <v>15</v>
       </c>
       <c r="BB4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC4" t="n">
         <v>22</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-10-2007-08</t>
+          <t>2008-03-10</t>
         </is>
       </c>
     </row>
@@ -1290,19 +1357,19 @@
         <v>-2.7</v>
       </c>
       <c r="AD5" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AE5" t="n">
         <v>21</v>
       </c>
       <c r="AF5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG5" t="n">
         <v>21</v>
       </c>
       <c r="AH5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI5" t="n">
         <v>22</v>
@@ -1326,7 +1393,7 @@
         <v>15</v>
       </c>
       <c r="AP5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ5" t="n">
         <v>19</v>
@@ -1362,7 +1429,7 @@
         <v>12</v>
       </c>
       <c r="BB5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC5" t="n">
         <v>20</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-10-2007-08</t>
+          <t>2008-03-10</t>
         </is>
       </c>
     </row>
@@ -1394,31 +1461,31 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E6" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F6" t="n">
         <v>27</v>
       </c>
       <c r="G6" t="n">
-        <v>0.578</v>
+        <v>0.571</v>
       </c>
       <c r="H6" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I6" t="n">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="J6" t="n">
-        <v>81.90000000000001</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.44</v>
+        <v>0.441</v>
       </c>
       <c r="L6" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="M6" t="n">
         <v>19.3</v>
@@ -1427,31 +1494,31 @@
         <v>0.366</v>
       </c>
       <c r="O6" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="P6" t="n">
-        <v>25.1</v>
+        <v>25</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.721</v>
+        <v>0.72</v>
       </c>
       <c r="R6" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="S6" t="n">
         <v>31.1</v>
       </c>
       <c r="T6" t="n">
-        <v>44.1</v>
+        <v>44.2</v>
       </c>
       <c r="U6" t="n">
         <v>19.8</v>
       </c>
       <c r="V6" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W6" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X6" t="n">
         <v>5</v>
@@ -1460,22 +1527,22 @@
         <v>4.6</v>
       </c>
       <c r="Z6" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AB6" t="n">
-        <v>97.3</v>
+        <v>97.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.3</v>
+        <v>-0.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF6" t="n">
         <v>13</v>
@@ -1484,22 +1551,22 @@
         <v>13</v>
       </c>
       <c r="AH6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ6" t="n">
         <v>10</v>
       </c>
       <c r="AK6" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL6" t="n">
         <v>12</v>
       </c>
       <c r="AM6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN6" t="n">
         <v>13</v>
@@ -1508,13 +1575,13 @@
         <v>20</v>
       </c>
       <c r="AP6" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AQ6" t="n">
         <v>28</v>
       </c>
       <c r="AR6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS6" t="n">
         <v>11</v>
@@ -1529,7 +1596,7 @@
         <v>9</v>
       </c>
       <c r="AW6" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AX6" t="n">
         <v>10</v>
@@ -1538,13 +1605,13 @@
         <v>13</v>
       </c>
       <c r="AZ6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA6" t="n">
         <v>23</v>
       </c>
       <c r="BB6" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BC6" t="n">
         <v>15</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-10-2007-08</t>
+          <t>2008-03-10</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E7" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F7" t="n">
         <v>23</v>
       </c>
       <c r="G7" t="n">
-        <v>0.641</v>
+        <v>0.635</v>
       </c>
       <c r="H7" t="n">
         <v>48.2</v>
@@ -1597,37 +1664,37 @@
         <v>79.09999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>0.462</v>
+        <v>0.461</v>
       </c>
       <c r="L7" t="n">
         <v>5.9</v>
       </c>
       <c r="M7" t="n">
-        <v>16.6</v>
+        <v>16.8</v>
       </c>
       <c r="N7" t="n">
-        <v>0.352</v>
+        <v>0.353</v>
       </c>
       <c r="O7" t="n">
         <v>21</v>
       </c>
       <c r="P7" t="n">
-        <v>25.7</v>
+        <v>25.6</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.8169999999999999</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="R7" t="n">
         <v>11</v>
       </c>
       <c r="S7" t="n">
-        <v>32.1</v>
+        <v>31.9</v>
       </c>
       <c r="T7" t="n">
-        <v>43.1</v>
+        <v>42.9</v>
       </c>
       <c r="U7" t="n">
-        <v>20.4</v>
+        <v>20.2</v>
       </c>
       <c r="V7" t="n">
         <v>12.9</v>
@@ -1648,16 +1715,16 @@
         <v>21.6</v>
       </c>
       <c r="AB7" t="n">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="AC7" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF7" t="n">
         <v>9</v>
@@ -1666,16 +1733,16 @@
         <v>9</v>
       </c>
       <c r="AH7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ7" t="n">
         <v>24</v>
       </c>
       <c r="AK7" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AL7" t="n">
         <v>19</v>
@@ -1705,10 +1772,10 @@
         <v>8</v>
       </c>
       <c r="AU7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW7" t="n">
         <v>29</v>
@@ -1729,7 +1796,7 @@
         <v>12</v>
       </c>
       <c r="BC7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-10-2007-08</t>
+          <t>2008-03-10</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E8" t="n">
         <v>37</v>
       </c>
       <c r="F8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G8" t="n">
-        <v>0.587</v>
+        <v>0.597</v>
       </c>
       <c r="H8" t="n">
         <v>48.4</v>
@@ -1782,19 +1849,19 @@
         <v>0.459</v>
       </c>
       <c r="L8" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="M8" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="N8" t="n">
         <v>0.344</v>
       </c>
       <c r="O8" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="P8" t="n">
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
       <c r="Q8" t="n">
         <v>0.753</v>
@@ -1809,7 +1876,7 @@
         <v>44.4</v>
       </c>
       <c r="U8" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="V8" t="n">
         <v>15.2</v>
@@ -1818,7 +1885,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="X8" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="Y8" t="n">
         <v>5</v>
@@ -1830,13 +1897,13 @@
         <v>24</v>
       </c>
       <c r="AB8" t="n">
-        <v>107.5</v>
+        <v>107.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="AE8" t="n">
         <v>12</v>
@@ -1848,7 +1915,7 @@
         <v>12</v>
       </c>
       <c r="AH8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI8" t="n">
         <v>5</v>
@@ -1881,7 +1948,7 @@
         <v>11</v>
       </c>
       <c r="AS8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT8" t="n">
         <v>3</v>
@@ -1890,10 +1957,10 @@
         <v>4</v>
       </c>
       <c r="AV8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX8" t="n">
         <v>1</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-10-2007-08</t>
+          <t>2008-03-10</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>7.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2048,13 +2115,13 @@
         <v>22</v>
       </c>
       <c r="AN9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO9" t="n">
         <v>12</v>
       </c>
       <c r="AP9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ9" t="n">
         <v>13</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-10-2007-08</t>
+          <t>2008-03-10</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>3.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AE10" t="n">
         <v>11</v>
@@ -2209,7 +2276,7 @@
         <v>9</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH10" t="n">
         <v>19</v>
@@ -2236,13 +2303,13 @@
         <v>14</v>
       </c>
       <c r="AP10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ10" t="n">
         <v>18</v>
       </c>
       <c r="AR10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS10" t="n">
         <v>17</v>
@@ -2257,7 +2324,7 @@
         <v>7</v>
       </c>
       <c r="AW10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX10" t="n">
         <v>18</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-10-2007-08</t>
+          <t>2008-03-10</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E11" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F11" t="n">
         <v>20</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.677</v>
       </c>
       <c r="H11" t="n">
         <v>48.2</v>
@@ -2322,7 +2389,7 @@
         <v>37.1</v>
       </c>
       <c r="J11" t="n">
-        <v>81.40000000000001</v>
+        <v>81.5</v>
       </c>
       <c r="K11" t="n">
         <v>0.455</v>
@@ -2334,22 +2401,22 @@
         <v>20.7</v>
       </c>
       <c r="N11" t="n">
-        <v>0.349</v>
+        <v>0.347</v>
       </c>
       <c r="O11" t="n">
         <v>16</v>
       </c>
       <c r="P11" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.724</v>
+        <v>0.728</v>
       </c>
       <c r="R11" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S11" t="n">
-        <v>32.6</v>
+        <v>32.5</v>
       </c>
       <c r="T11" t="n">
         <v>44.5</v>
@@ -2358,31 +2425,31 @@
         <v>22.3</v>
       </c>
       <c r="V11" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W11" t="n">
         <v>7.4</v>
       </c>
       <c r="X11" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z11" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AA11" t="n">
         <v>19.7</v>
       </c>
       <c r="AB11" t="n">
-        <v>97.3</v>
+        <v>97.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="AD11" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="AE11" t="n">
         <v>5</v>
@@ -2397,13 +2464,13 @@
         <v>24</v>
       </c>
       <c r="AI11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ11" t="n">
         <v>13</v>
       </c>
       <c r="AK11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL11" t="n">
         <v>11</v>
@@ -2412,7 +2479,7 @@
         <v>6</v>
       </c>
       <c r="AN11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO11" t="n">
         <v>28</v>
@@ -2421,19 +2488,19 @@
         <v>27</v>
       </c>
       <c r="AQ11" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AR11" t="n">
         <v>10</v>
       </c>
       <c r="AS11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT11" t="n">
         <v>2</v>
       </c>
       <c r="AU11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV11" t="n">
         <v>11</v>
@@ -2445,7 +2512,7 @@
         <v>4</v>
       </c>
       <c r="AY11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ11" t="n">
         <v>4</v>
@@ -2454,7 +2521,7 @@
         <v>27</v>
       </c>
       <c r="BB11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC11" t="n">
         <v>5</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-10-2007-08</t>
+          <t>2008-03-10</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>-2.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AE12" t="n">
         <v>22</v>
@@ -2585,7 +2652,7 @@
         <v>2</v>
       </c>
       <c r="AK12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL12" t="n">
         <v>3</v>
@@ -2633,7 +2700,7 @@
         <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BB12" t="n">
         <v>7</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-10-2007-08</t>
+          <t>2008-03-10</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F13" t="n">
         <v>41</v>
       </c>
       <c r="G13" t="n">
-        <v>0.339</v>
+        <v>0.328</v>
       </c>
       <c r="H13" t="n">
         <v>48.3</v>
@@ -2686,19 +2753,19 @@
         <v>34.3</v>
       </c>
       <c r="J13" t="n">
-        <v>78.5</v>
+        <v>78.7</v>
       </c>
       <c r="K13" t="n">
-        <v>0.437</v>
+        <v>0.435</v>
       </c>
       <c r="L13" t="n">
         <v>4.3</v>
       </c>
       <c r="M13" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="N13" t="n">
-        <v>0.335</v>
+        <v>0.331</v>
       </c>
       <c r="O13" t="n">
         <v>21.1</v>
@@ -2707,19 +2774,19 @@
         <v>26.7</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.79</v>
+        <v>0.789</v>
       </c>
       <c r="R13" t="n">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S13" t="n">
         <v>30.5</v>
       </c>
       <c r="T13" t="n">
-        <v>40.1</v>
+        <v>40.2</v>
       </c>
       <c r="U13" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="V13" t="n">
         <v>14.5</v>
@@ -2731,22 +2798,22 @@
         <v>4.9</v>
       </c>
       <c r="Y13" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z13" t="n">
         <v>21.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AB13" t="n">
         <v>93.90000000000001</v>
       </c>
       <c r="AC13" t="n">
-        <v>-5.7</v>
+        <v>-5.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AE13" t="n">
         <v>25</v>
@@ -2767,7 +2834,7 @@
         <v>25</v>
       </c>
       <c r="AK13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL13" t="n">
         <v>27</v>
@@ -2788,19 +2855,19 @@
         <v>6</v>
       </c>
       <c r="AR13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AS13" t="n">
         <v>15</v>
       </c>
       <c r="AT13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AU13" t="n">
         <v>15</v>
       </c>
       <c r="AV13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW13" t="n">
         <v>20</v>
@@ -2812,13 +2879,13 @@
         <v>21</v>
       </c>
       <c r="AZ13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BC13" t="n">
         <v>24</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-10-2007-08</t>
+          <t>2008-03-10</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>7.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AE14" t="n">
         <v>3</v>
@@ -2940,7 +3007,7 @@
         <v>3</v>
       </c>
       <c r="AH14" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AI14" t="n">
         <v>4</v>
@@ -2958,7 +3025,7 @@
         <v>9</v>
       </c>
       <c r="AN14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO14" t="n">
         <v>3</v>
@@ -2997,7 +3064,7 @@
         <v>12</v>
       </c>
       <c r="BA14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB14" t="n">
         <v>3</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-10-2007-08</t>
+          <t>2008-03-10</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-6.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AE15" t="n">
         <v>28</v>
@@ -3122,7 +3189,7 @@
         <v>28</v>
       </c>
       <c r="AH15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI15" t="n">
         <v>13</v>
@@ -3155,7 +3222,7 @@
         <v>23</v>
       </c>
       <c r="AS15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT15" t="n">
         <v>20</v>
@@ -3185,7 +3252,7 @@
         <v>13</v>
       </c>
       <c r="BC15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-10-2007-08</t>
+          <t>2008-03-10</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E16" t="n">
         <v>11</v>
       </c>
       <c r="F16" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G16" t="n">
-        <v>0.177</v>
+        <v>0.18</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
@@ -3232,67 +3299,67 @@
         <v>35.5</v>
       </c>
       <c r="J16" t="n">
-        <v>77.90000000000001</v>
+        <v>78</v>
       </c>
       <c r="K16" t="n">
         <v>0.455</v>
       </c>
       <c r="L16" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="M16" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="N16" t="n">
-        <v>0.349</v>
+        <v>0.344</v>
       </c>
       <c r="O16" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="P16" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.723</v>
+        <v>0.724</v>
       </c>
       <c r="R16" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="S16" t="n">
-        <v>28.8</v>
+        <v>29</v>
       </c>
       <c r="T16" t="n">
-        <v>38</v>
+        <v>38.1</v>
       </c>
       <c r="U16" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="V16" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W16" t="n">
         <v>7.2</v>
       </c>
       <c r="X16" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AA16" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AB16" t="n">
-        <v>93.8</v>
+        <v>93.7</v>
       </c>
       <c r="AC16" t="n">
-        <v>-7.7</v>
+        <v>-7.8</v>
       </c>
       <c r="AD16" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AE16" t="n">
         <v>30</v>
@@ -3313,7 +3380,7 @@
         <v>29</v>
       </c>
       <c r="AK16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL16" t="n">
         <v>25</v>
@@ -3322,7 +3389,7 @@
         <v>25</v>
       </c>
       <c r="AN16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO16" t="n">
         <v>23</v>
@@ -3331,7 +3398,7 @@
         <v>19</v>
       </c>
       <c r="AQ16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR16" t="n">
         <v>29</v>
@@ -3343,7 +3410,7 @@
         <v>30</v>
       </c>
       <c r="AU16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV16" t="n">
         <v>19</v>
@@ -3355,7 +3422,7 @@
         <v>22</v>
       </c>
       <c r="AY16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ16" t="n">
         <v>10</v>
@@ -3364,10 +3431,10 @@
         <v>17</v>
       </c>
       <c r="BB16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BC16" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-10-2007-08</t>
+          <t>2008-03-10</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>-6.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AE17" t="n">
         <v>24</v>
@@ -3489,7 +3556,7 @@
         <v>16</v>
       </c>
       <c r="AI17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ17" t="n">
         <v>14</v>
@@ -3528,13 +3595,13 @@
         <v>19</v>
       </c>
       <c r="AV17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY17" t="n">
         <v>20</v>
@@ -3543,13 +3610,13 @@
         <v>17</v>
       </c>
       <c r="BA17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB17" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BC17" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-10-2007-08</t>
+          <t>2008-03-10</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-7.4</v>
       </c>
       <c r="AD18" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AE18" t="n">
         <v>29</v>
@@ -3686,7 +3753,7 @@
         <v>24</v>
       </c>
       <c r="AN18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO18" t="n">
         <v>30</v>
@@ -3695,10 +3762,10 @@
         <v>29</v>
       </c>
       <c r="AQ18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS18" t="n">
         <v>27</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-10-2007-08</t>
+          <t>2008-03-10</t>
         </is>
       </c>
     </row>
@@ -3760,61 +3827,61 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E19" t="n">
         <v>26</v>
       </c>
       <c r="F19" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G19" t="n">
-        <v>0.406</v>
+        <v>0.413</v>
       </c>
       <c r="H19" t="n">
         <v>48.4</v>
       </c>
       <c r="I19" t="n">
-        <v>34</v>
+        <v>34.2</v>
       </c>
       <c r="J19" t="n">
         <v>78.3</v>
       </c>
       <c r="K19" t="n">
-        <v>0.434</v>
+        <v>0.436</v>
       </c>
       <c r="L19" t="n">
         <v>5.8</v>
       </c>
       <c r="M19" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="N19" t="n">
-        <v>0.339</v>
+        <v>0.341</v>
       </c>
       <c r="O19" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="P19" t="n">
-        <v>27.4</v>
+        <v>27.3</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.725</v>
+        <v>0.726</v>
       </c>
       <c r="R19" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="S19" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="T19" t="n">
         <v>42.4</v>
       </c>
       <c r="U19" t="n">
-        <v>23.2</v>
+        <v>23.4</v>
       </c>
       <c r="V19" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W19" t="n">
         <v>6.5</v>
@@ -3823,22 +3890,22 @@
         <v>4.7</v>
       </c>
       <c r="Y19" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Z19" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="AA19" t="n">
         <v>22.3</v>
       </c>
       <c r="AB19" t="n">
-        <v>93.7</v>
+        <v>94</v>
       </c>
       <c r="AC19" t="n">
-        <v>-5.4</v>
+        <v>-5.2</v>
       </c>
       <c r="AD19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE19" t="n">
         <v>19</v>
@@ -3850,7 +3917,7 @@
         <v>20</v>
       </c>
       <c r="AH19" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
@@ -3859,31 +3926,31 @@
         <v>28</v>
       </c>
       <c r="AK19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL19" t="n">
         <v>20</v>
       </c>
       <c r="AM19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AN19" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AO19" t="n">
         <v>10</v>
       </c>
       <c r="AP19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AR19" t="n">
         <v>15</v>
       </c>
       <c r="AS19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT19" t="n">
         <v>9</v>
@@ -3892,16 +3959,16 @@
         <v>5</v>
       </c>
       <c r="AV19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX19" t="n">
         <v>17</v>
       </c>
       <c r="AY19" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ19" t="n">
         <v>26</v>
@@ -3910,7 +3977,7 @@
         <v>8</v>
       </c>
       <c r="BB19" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="BC19" t="n">
         <v>23</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-10-2007-08</t>
+          <t>2008-03-10</t>
         </is>
       </c>
     </row>
@@ -4020,19 +4087,19 @@
         <v>5</v>
       </c>
       <c r="AD20" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AE20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF20" t="n">
         <v>5</v>
       </c>
       <c r="AG20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI20" t="n">
         <v>6</v>
@@ -4041,7 +4108,7 @@
         <v>7</v>
       </c>
       <c r="AK20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL20" t="n">
         <v>5</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-10-2007-08</t>
+          <t>2008-03-10</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E21" t="n">
         <v>18</v>
       </c>
       <c r="F21" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G21" t="n">
-        <v>0.281</v>
+        <v>0.286</v>
       </c>
       <c r="H21" t="n">
         <v>48.5</v>
@@ -4142,10 +4209,10 @@
         <v>35.3</v>
       </c>
       <c r="J21" t="n">
-        <v>80.2</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="K21" t="n">
-        <v>0.44</v>
+        <v>0.441</v>
       </c>
       <c r="L21" t="n">
         <v>5.8</v>
@@ -4154,16 +4221,16 @@
         <v>17.2</v>
       </c>
       <c r="N21" t="n">
-        <v>0.335</v>
+        <v>0.337</v>
       </c>
       <c r="O21" t="n">
         <v>19</v>
       </c>
       <c r="P21" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.728</v>
+        <v>0.726</v>
       </c>
       <c r="R21" t="n">
         <v>12.1</v>
@@ -4172,13 +4239,13 @@
         <v>29.7</v>
       </c>
       <c r="T21" t="n">
-        <v>41.7</v>
+        <v>41.8</v>
       </c>
       <c r="U21" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="V21" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W21" t="n">
         <v>6.1</v>
@@ -4196,13 +4263,13 @@
         <v>21</v>
       </c>
       <c r="AB21" t="n">
-        <v>95.3</v>
+        <v>95.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>-6.7</v>
+        <v>-6.3</v>
       </c>
       <c r="AD21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE21" t="n">
         <v>26</v>
@@ -4217,22 +4284,22 @@
         <v>6</v>
       </c>
       <c r="AI21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AJ21" t="n">
         <v>18</v>
       </c>
       <c r="AK21" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AL21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM21" t="n">
         <v>16</v>
       </c>
       <c r="AN21" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AO21" t="n">
         <v>13</v>
@@ -4241,10 +4308,10 @@
         <v>10</v>
       </c>
       <c r="AQ21" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AR21" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AS21" t="n">
         <v>23</v>
@@ -4268,7 +4335,7 @@
         <v>23</v>
       </c>
       <c r="AZ21" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BA21" t="n">
         <v>16</v>
@@ -4277,7 +4344,7 @@
         <v>26</v>
       </c>
       <c r="BC21" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-10-2007-08</t>
+          <t>2008-03-10</t>
         </is>
       </c>
     </row>
@@ -4306,46 +4373,46 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E22" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F22" t="n">
         <v>24</v>
       </c>
       <c r="G22" t="n">
-        <v>0.631</v>
+        <v>0.625</v>
       </c>
       <c r="H22" t="n">
         <v>48.3</v>
       </c>
       <c r="I22" t="n">
-        <v>37.2</v>
+        <v>37</v>
       </c>
       <c r="J22" t="n">
-        <v>78.40000000000001</v>
+        <v>78.3</v>
       </c>
       <c r="K22" t="n">
-        <v>0.474</v>
+        <v>0.473</v>
       </c>
       <c r="L22" t="n">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="M22" t="n">
         <v>24.7</v>
       </c>
       <c r="N22" t="n">
-        <v>0.38</v>
+        <v>0.378</v>
       </c>
       <c r="O22" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="P22" t="n">
         <v>29</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.725</v>
+        <v>0.727</v>
       </c>
       <c r="R22" t="n">
         <v>9.5</v>
@@ -4357,10 +4424,10 @@
         <v>42.2</v>
       </c>
       <c r="U22" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="V22" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W22" t="n">
         <v>6.2</v>
@@ -4372,34 +4439,34 @@
         <v>4.3</v>
       </c>
       <c r="Z22" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AA22" t="n">
         <v>23.8</v>
       </c>
       <c r="AB22" t="n">
-        <v>104.7</v>
+        <v>104.4</v>
       </c>
       <c r="AC22" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
       </c>
       <c r="AE22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF22" t="n">
         <v>11</v>
       </c>
       <c r="AG22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH22" t="n">
         <v>18</v>
       </c>
       <c r="AI22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ22" t="n">
         <v>27</v>
@@ -4414,7 +4481,7 @@
         <v>2</v>
       </c>
       <c r="AN22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO22" t="n">
         <v>7</v>
@@ -4438,19 +4505,19 @@
         <v>24</v>
       </c>
       <c r="AV22" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AW22" t="n">
         <v>26</v>
       </c>
       <c r="AX22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA22" t="n">
         <v>2</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-10-2007-08</t>
+          <t>2008-03-10</t>
         </is>
       </c>
     </row>
@@ -4488,85 +4555,85 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E23" t="n">
         <v>30</v>
       </c>
       <c r="F23" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G23" t="n">
-        <v>0.469</v>
+        <v>0.476</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>37.3</v>
+        <v>37.5</v>
       </c>
       <c r="J23" t="n">
-        <v>81</v>
+        <v>80.8</v>
       </c>
       <c r="K23" t="n">
-        <v>0.461</v>
+        <v>0.464</v>
       </c>
       <c r="L23" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M23" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="N23" t="n">
-        <v>0.315</v>
+        <v>0.32</v>
       </c>
       <c r="O23" t="n">
-        <v>18</v>
+        <v>17.9</v>
       </c>
       <c r="P23" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="Q23" t="n">
         <v>0.703</v>
       </c>
       <c r="R23" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="S23" t="n">
         <v>29</v>
       </c>
       <c r="T23" t="n">
-        <v>42.1</v>
+        <v>42</v>
       </c>
       <c r="U23" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="V23" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W23" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="X23" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y23" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z23" t="n">
         <v>19.8</v>
       </c>
       <c r="AA23" t="n">
-        <v>20.7</v>
+        <v>20.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>96.2</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="AD23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE23" t="n">
         <v>16</v>
@@ -4578,7 +4645,7 @@
         <v>17</v>
       </c>
       <c r="AH23" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AI23" t="n">
         <v>10</v>
@@ -4587,7 +4654,7 @@
         <v>16</v>
       </c>
       <c r="AK23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AL23" t="n">
         <v>30</v>
@@ -4608,13 +4675,13 @@
         <v>30</v>
       </c>
       <c r="AR23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AS23" t="n">
         <v>28</v>
       </c>
       <c r="AT23" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU23" t="n">
         <v>21</v>
@@ -4635,10 +4702,10 @@
         <v>7</v>
       </c>
       <c r="BA23" t="n">
+        <v>21</v>
+      </c>
+      <c r="BB23" t="n">
         <v>19</v>
-      </c>
-      <c r="BB23" t="n">
-        <v>21</v>
       </c>
       <c r="BC23" t="n">
         <v>14</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-10-2007-08</t>
+          <t>2008-03-10</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>4.2</v>
       </c>
       <c r="AD24" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AE24" t="n">
         <v>8</v>
@@ -4802,7 +4869,7 @@
         <v>1</v>
       </c>
       <c r="AV24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW24" t="n">
         <v>21</v>
@@ -4817,7 +4884,7 @@
         <v>6</v>
       </c>
       <c r="BA24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB24" t="n">
         <v>2</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-10-2007-08</t>
+          <t>2008-03-10</t>
         </is>
       </c>
     </row>
@@ -4852,64 +4919,64 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E25" t="n">
         <v>33</v>
       </c>
       <c r="F25" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G25" t="n">
-        <v>0.516</v>
+        <v>0.524</v>
       </c>
       <c r="H25" t="n">
         <v>48.7</v>
       </c>
       <c r="I25" t="n">
-        <v>35.7</v>
+        <v>35.8</v>
       </c>
       <c r="J25" t="n">
         <v>79.2</v>
       </c>
       <c r="K25" t="n">
-        <v>0.451</v>
+        <v>0.452</v>
       </c>
       <c r="L25" t="n">
         <v>6.4</v>
       </c>
       <c r="M25" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="N25" t="n">
-        <v>0.372</v>
+        <v>0.374</v>
       </c>
       <c r="O25" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="P25" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.765</v>
+        <v>0.766</v>
       </c>
       <c r="R25" t="n">
         <v>10.6</v>
       </c>
       <c r="S25" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="T25" t="n">
-        <v>40.5</v>
+        <v>40.4</v>
       </c>
       <c r="U25" t="n">
         <v>21</v>
       </c>
       <c r="V25" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="W25" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="X25" t="n">
         <v>4.5</v>
@@ -4918,19 +4985,19 @@
         <v>3.7</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AA25" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB25" t="n">
-        <v>95.59999999999999</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC25" t="n">
-        <v>-0.8</v>
+        <v>-0.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE25" t="n">
         <v>15</v>
@@ -4945,7 +5012,7 @@
         <v>1</v>
       </c>
       <c r="AI25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ25" t="n">
         <v>23</v>
@@ -4954,16 +5021,16 @@
         <v>18</v>
       </c>
       <c r="AL25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM25" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AN25" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AO25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP25" t="n">
         <v>24</v>
@@ -4990,7 +5057,7 @@
         <v>30</v>
       </c>
       <c r="AX25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY25" t="n">
         <v>1</v>
@@ -4999,7 +5066,7 @@
         <v>9</v>
       </c>
       <c r="BA25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB25" t="n">
         <v>25</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-10-2007-08</t>
+          <t>2008-03-10</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5179,7 @@
         <v>-2.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AE26" t="n">
         <v>18</v>
@@ -5124,7 +5191,7 @@
         <v>18</v>
       </c>
       <c r="AH26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI26" t="n">
         <v>15</v>
@@ -5157,10 +5224,10 @@
         <v>22</v>
       </c>
       <c r="AS26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT26" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AU26" t="n">
         <v>28</v>
@@ -5172,7 +5239,7 @@
         <v>7</v>
       </c>
       <c r="AX26" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AY26" t="n">
         <v>27</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-10-2007-08</t>
+          <t>2008-03-10</t>
         </is>
       </c>
     </row>
@@ -5216,43 +5283,43 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E27" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" t="n">
         <v>19</v>
       </c>
       <c r="G27" t="n">
-        <v>0.698</v>
+        <v>0.694</v>
       </c>
       <c r="H27" t="n">
         <v>48.2</v>
       </c>
       <c r="I27" t="n">
-        <v>35.7</v>
+        <v>35.6</v>
       </c>
       <c r="J27" t="n">
-        <v>78.5</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K27" t="n">
-        <v>0.455</v>
+        <v>0.454</v>
       </c>
       <c r="L27" t="n">
         <v>7.7</v>
       </c>
       <c r="M27" t="n">
-        <v>20.3</v>
+        <v>20.5</v>
       </c>
       <c r="N27" t="n">
-        <v>0.378</v>
+        <v>0.379</v>
       </c>
       <c r="O27" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="P27" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="Q27" t="n">
         <v>0.761</v>
@@ -5267,16 +5334,16 @@
         <v>41.6</v>
       </c>
       <c r="U27" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="V27" t="n">
         <v>12.9</v>
       </c>
       <c r="W27" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="X27" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Y27" t="n">
         <v>4.4</v>
@@ -5285,25 +5352,25 @@
         <v>19</v>
       </c>
       <c r="AA27" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AB27" t="n">
-        <v>96.09999999999999</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC27" t="n">
         <v>5</v>
       </c>
       <c r="AD27" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="AE27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF27" t="n">
         <v>3</v>
       </c>
       <c r="AG27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH27" t="n">
         <v>24</v>
@@ -5324,7 +5391,7 @@
         <v>7</v>
       </c>
       <c r="AN27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AO27" t="n">
         <v>26</v>
@@ -5345,10 +5412,10 @@
         <v>17</v>
       </c>
       <c r="AU27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW27" t="n">
         <v>22</v>
@@ -5363,13 +5430,13 @@
         <v>2</v>
       </c>
       <c r="BA27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB27" t="n">
         <v>23</v>
       </c>
       <c r="BC27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-10-2007-08</t>
+          <t>2008-03-10</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>-7.7</v>
       </c>
       <c r="AD28" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AE28" t="n">
         <v>27</v>
@@ -5497,7 +5564,7 @@
         <v>4</v>
       </c>
       <c r="AK28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL28" t="n">
         <v>29</v>
@@ -5551,7 +5618,7 @@
         <v>18</v>
       </c>
       <c r="BC28" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-10-2007-08</t>
+          <t>2008-03-10</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>4</v>
       </c>
       <c r="AD29" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AE29" t="n">
         <v>14</v>
@@ -5670,7 +5737,7 @@
         <v>14</v>
       </c>
       <c r="AH29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI29" t="n">
         <v>7</v>
@@ -5721,7 +5788,7 @@
         <v>27</v>
       </c>
       <c r="AY29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ29" t="n">
         <v>8</v>
@@ -5733,7 +5800,7 @@
         <v>10</v>
       </c>
       <c r="BC29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-10-2007-08</t>
+          <t>2008-03-10</t>
         </is>
       </c>
     </row>
@@ -5840,10 +5907,10 @@
         <v>6.3</v>
       </c>
       <c r="AD30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF30" t="n">
         <v>7</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-10-2007-08</t>
+          <t>2008-03-10</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>-0.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AE31" t="n">
         <v>16</v>
@@ -6037,19 +6104,19 @@
         <v>2</v>
       </c>
       <c r="AI31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ31" t="n">
         <v>11</v>
       </c>
       <c r="AK31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL31" t="n">
         <v>13</v>
       </c>
       <c r="AM31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AN31" t="n">
         <v>23</v>
@@ -6070,7 +6137,7 @@
         <v>22</v>
       </c>
       <c r="AT31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU31" t="n">
         <v>29</v>
@@ -6085,13 +6152,13 @@
         <v>8</v>
       </c>
       <c r="AY31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ31" t="n">
         <v>5</v>
       </c>
       <c r="BA31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BB31" t="n">
         <v>15</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-10-2007-08</t>
+          <t>2008-03-10</t>
         </is>
       </c>
     </row>
